--- a/natmiOut/OldD4/LR-pairs_lrc2p/Jag1-Cd46.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Jag1-Cd46.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.3367393597003</v>
+        <v>14.52425533333333</v>
       </c>
       <c r="H2">
-        <v>13.3367393597003</v>
+        <v>43.572766</v>
       </c>
       <c r="I2">
-        <v>0.1998174976316041</v>
+        <v>0.2093406766457121</v>
       </c>
       <c r="J2">
-        <v>0.1998174976316041</v>
+        <v>0.2513957970825711</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.83909699574361</v>
+        <v>3.931427666666667</v>
       </c>
       <c r="N2">
-        <v>3.83909699574361</v>
+        <v>11.794283</v>
       </c>
       <c r="O2">
-        <v>0.376713073902891</v>
+        <v>0.3669735923346364</v>
       </c>
       <c r="P2">
-        <v>0.376713073902891</v>
+        <v>0.4268080945104293</v>
       </c>
       <c r="Q2">
-        <v>51.20103600884097</v>
+        <v>57.10105925519755</v>
       </c>
       <c r="R2">
-        <v>51.20103600884097</v>
+        <v>513.909533296778</v>
       </c>
       <c r="S2">
-        <v>0.07527386375238522</v>
+        <v>0.07682250013044049</v>
       </c>
       <c r="T2">
-        <v>0.07527386375238522</v>
+        <v>0.1072977611207427</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.3367393597003</v>
+        <v>14.52425533333333</v>
       </c>
       <c r="H3">
-        <v>13.3367393597003</v>
+        <v>43.572766</v>
       </c>
       <c r="I3">
-        <v>0.1998174976316041</v>
+        <v>0.2093406766457121</v>
       </c>
       <c r="J3">
-        <v>0.1998174976316041</v>
+        <v>0.2513957970825711</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.25217898990058</v>
+        <v>1.309643333333333</v>
       </c>
       <c r="N3">
-        <v>1.25217898990058</v>
+        <v>3.92893</v>
       </c>
       <c r="O3">
-        <v>0.122870611731105</v>
+        <v>0.122246817049525</v>
       </c>
       <c r="P3">
-        <v>0.122870611731105</v>
+        <v>0.1421789799994507</v>
       </c>
       <c r="Q3">
-        <v>16.69998481999683</v>
+        <v>19.02159416893111</v>
       </c>
       <c r="R3">
-        <v>16.69998481999683</v>
+        <v>171.19434752038</v>
       </c>
       <c r="S3">
-        <v>0.02455169816857381</v>
+        <v>0.02559123139893214</v>
       </c>
       <c r="T3">
-        <v>0.02455169816857381</v>
+        <v>0.03574319800534884</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.3367393597003</v>
+        <v>14.52425533333333</v>
       </c>
       <c r="H4">
-        <v>13.3367393597003</v>
+        <v>43.572766</v>
       </c>
       <c r="I4">
-        <v>0.1998174976316041</v>
+        <v>0.2093406766457121</v>
       </c>
       <c r="J4">
-        <v>0.1998174976316041</v>
+        <v>0.2513957970825711</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.595424181339672</v>
+        <v>0.367377</v>
       </c>
       <c r="N4">
-        <v>0.595424181339672</v>
+        <v>1.102131</v>
       </c>
       <c r="O4">
-        <v>0.05842625853873065</v>
+        <v>0.03429228994194605</v>
       </c>
       <c r="P4">
-        <v>0.05842625853873065</v>
+        <v>0.039883597164056</v>
       </c>
       <c r="Q4">
-        <v>7.941017114990133</v>
+        <v>5.335877351594</v>
       </c>
       <c r="R4">
-        <v>7.941017114990133</v>
+        <v>48.022896164346</v>
       </c>
       <c r="S4">
-        <v>0.0116745887771863</v>
+        <v>0.007178771180177931</v>
       </c>
       <c r="T4">
-        <v>0.0116745887771863</v>
+        <v>0.01002656869957803</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.3367393597003</v>
+        <v>14.52425533333333</v>
       </c>
       <c r="H5">
-        <v>13.3367393597003</v>
+        <v>43.572766</v>
       </c>
       <c r="I5">
-        <v>0.1998174976316041</v>
+        <v>0.2093406766457121</v>
       </c>
       <c r="J5">
-        <v>0.1998174976316041</v>
+        <v>0.2513957970825711</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.50433715478759</v>
+        <v>0.5990273333333334</v>
       </c>
       <c r="N5">
-        <v>4.50433715478759</v>
+        <v>1.797082</v>
       </c>
       <c r="O5">
-        <v>0.4419900558272734</v>
+        <v>0.05591536486447825</v>
       </c>
       <c r="P5">
-        <v>0.4419900558272734</v>
+        <v>0.06503228251340004</v>
       </c>
       <c r="Q5">
-        <v>60.07317062161611</v>
+        <v>8.700425940979112</v>
       </c>
       <c r="R5">
-        <v>60.07317062161611</v>
+        <v>78.303833468812</v>
       </c>
       <c r="S5">
-        <v>0.08831734693345875</v>
+        <v>0.01170536031562175</v>
       </c>
       <c r="T5">
-        <v>0.08831734693345875</v>
+        <v>0.01634884249855515</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.2370954680494</v>
+        <v>14.52425533333333</v>
       </c>
       <c r="H6">
-        <v>12.2370954680494</v>
+        <v>43.572766</v>
       </c>
       <c r="I6">
-        <v>0.1833420995009699</v>
+        <v>0.2093406766457121</v>
       </c>
       <c r="J6">
-        <v>0.1833420995009699</v>
+        <v>0.2513957970825711</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.83909699574361</v>
+        <v>4.5056325</v>
       </c>
       <c r="N6">
-        <v>3.83909699574361</v>
+        <v>9.011265</v>
       </c>
       <c r="O6">
-        <v>0.376713073902891</v>
+        <v>0.4205719358094143</v>
       </c>
       <c r="P6">
-        <v>0.376713073902891</v>
+        <v>0.326097045812664</v>
       </c>
       <c r="Q6">
-        <v>46.9793964480162</v>
+        <v>65.440956868165</v>
       </c>
       <c r="R6">
-        <v>46.9793964480162</v>
+        <v>392.64574120899</v>
       </c>
       <c r="S6">
-        <v>0.06906736587882008</v>
+        <v>0.08804281362053977</v>
       </c>
       <c r="T6">
-        <v>0.06906736587882008</v>
+        <v>0.08197942675834637</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.2370954680494</v>
+        <v>13.149005</v>
       </c>
       <c r="H7">
-        <v>12.2370954680494</v>
+        <v>39.447015</v>
       </c>
       <c r="I7">
-        <v>0.1833420995009699</v>
+        <v>0.1895189488717231</v>
       </c>
       <c r="J7">
-        <v>0.1833420995009699</v>
+        <v>0.2275920187957115</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.25217898990058</v>
+        <v>3.931427666666667</v>
       </c>
       <c r="N7">
-        <v>1.25217898990058</v>
+        <v>11.794283</v>
       </c>
       <c r="O7">
-        <v>0.122870611731105</v>
+        <v>0.3669735923346364</v>
       </c>
       <c r="P7">
-        <v>0.122870611731105</v>
+        <v>0.4268080945104293</v>
       </c>
       <c r="Q7">
-        <v>15.32303384249906</v>
+        <v>51.69436204613834</v>
       </c>
       <c r="R7">
-        <v>15.32303384249906</v>
+        <v>465.249258415245</v>
       </c>
       <c r="S7">
-        <v>0.02252735592174929</v>
+        <v>0.06954844948294051</v>
       </c>
       <c r="T7">
-        <v>0.02252735592174929</v>
+        <v>0.09713811586797944</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.2370954680494</v>
+        <v>13.149005</v>
       </c>
       <c r="H8">
-        <v>12.2370954680494</v>
+        <v>39.447015</v>
       </c>
       <c r="I8">
-        <v>0.1833420995009699</v>
+        <v>0.1895189488717231</v>
       </c>
       <c r="J8">
-        <v>0.1833420995009699</v>
+        <v>0.2275920187957115</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.595424181339672</v>
+        <v>1.309643333333333</v>
       </c>
       <c r="N8">
-        <v>0.595424181339672</v>
+        <v>3.92893</v>
       </c>
       <c r="O8">
-        <v>0.05842625853873065</v>
+        <v>0.122246817049525</v>
       </c>
       <c r="P8">
-        <v>0.05842625853873065</v>
+        <v>0.1421789799994507</v>
       </c>
       <c r="Q8">
-        <v>7.286262551038725</v>
+        <v>17.22050673821667</v>
       </c>
       <c r="R8">
-        <v>7.286262551038725</v>
+        <v>154.98456064395</v>
       </c>
       <c r="S8">
-        <v>0.01071199290647735</v>
+        <v>0.02316808827013982</v>
       </c>
       <c r="T8">
-        <v>0.01071199290647735</v>
+        <v>0.03235880108839007</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.2370954680494</v>
+        <v>13.149005</v>
       </c>
       <c r="H9">
-        <v>12.2370954680494</v>
+        <v>39.447015</v>
       </c>
       <c r="I9">
-        <v>0.1833420995009699</v>
+        <v>0.1895189488717231</v>
       </c>
       <c r="J9">
-        <v>0.1833420995009699</v>
+        <v>0.2275920187957115</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.50433715478759</v>
+        <v>0.367377</v>
       </c>
       <c r="N9">
-        <v>4.50433715478759</v>
+        <v>1.102131</v>
       </c>
       <c r="O9">
-        <v>0.4419900558272734</v>
+        <v>0.03429228994194605</v>
       </c>
       <c r="P9">
-        <v>0.4419900558272734</v>
+        <v>0.039883597164056</v>
       </c>
       <c r="Q9">
-        <v>55.12000378341775</v>
+        <v>4.830642009885</v>
       </c>
       <c r="R9">
-        <v>55.12000378341775</v>
+        <v>43.475778088965</v>
       </c>
       <c r="S9">
-        <v>0.08103538479392319</v>
+        <v>0.006499038744201976</v>
       </c>
       <c r="T9">
-        <v>0.08103538479392319</v>
+        <v>0.009077188395402419</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.02363054814024</v>
+        <v>13.149005</v>
       </c>
       <c r="H10">
-        <v>3.02363054814024</v>
+        <v>39.447015</v>
       </c>
       <c r="I10">
-        <v>0.04530149938428692</v>
+        <v>0.1895189488717231</v>
       </c>
       <c r="J10">
-        <v>0.04530149938428692</v>
+        <v>0.2275920187957115</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.83909699574361</v>
+        <v>0.5990273333333334</v>
       </c>
       <c r="N10">
-        <v>3.83909699574361</v>
+        <v>1.797082</v>
       </c>
       <c r="O10">
-        <v>0.376713073902891</v>
+        <v>0.05591536486447825</v>
       </c>
       <c r="P10">
-        <v>0.376713073902891</v>
+        <v>0.06503228251340004</v>
       </c>
       <c r="Q10">
-        <v>11.6080109536038</v>
+        <v>7.876613401136668</v>
       </c>
       <c r="R10">
-        <v>11.6080109536038</v>
+        <v>70.88952061023001</v>
       </c>
       <c r="S10">
-        <v>0.01706566708546465</v>
+        <v>0.01059702117489479</v>
       </c>
       <c r="T10">
-        <v>0.01706566708546465</v>
+        <v>0.01480082846411776</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.02363054814024</v>
+        <v>13.149005</v>
       </c>
       <c r="H11">
-        <v>3.02363054814024</v>
+        <v>39.447015</v>
       </c>
       <c r="I11">
-        <v>0.04530149938428692</v>
+        <v>0.1895189488717231</v>
       </c>
       <c r="J11">
-        <v>0.04530149938428692</v>
+        <v>0.2275920187957115</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.25217898990058</v>
+        <v>4.5056325</v>
       </c>
       <c r="N11">
-        <v>1.25217898990058</v>
+        <v>9.011265</v>
       </c>
       <c r="O11">
-        <v>0.122870611731105</v>
+        <v>0.4205719358094143</v>
       </c>
       <c r="P11">
-        <v>0.122870611731105</v>
+        <v>0.326097045812664</v>
       </c>
       <c r="Q11">
-        <v>3.786126645602783</v>
+        <v>59.2445842706625</v>
       </c>
       <c r="R11">
-        <v>3.786126645602783</v>
+        <v>355.467505623975</v>
       </c>
       <c r="S11">
-        <v>0.005566222941683609</v>
+        <v>0.07970635119954599</v>
       </c>
       <c r="T11">
-        <v>0.005566222941683609</v>
+        <v>0.07421708497982181</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.02363054814024</v>
+        <v>3.309793666666666</v>
       </c>
       <c r="H12">
-        <v>3.02363054814024</v>
+        <v>9.929380999999999</v>
       </c>
       <c r="I12">
-        <v>0.04530149938428692</v>
+        <v>0.04770464508066981</v>
       </c>
       <c r="J12">
-        <v>0.04530149938428692</v>
+        <v>0.05728818434504563</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.595424181339672</v>
+        <v>3.931427666666667</v>
       </c>
       <c r="N12">
-        <v>0.595424181339672</v>
+        <v>11.794283</v>
       </c>
       <c r="O12">
-        <v>0.05842625853873065</v>
+        <v>0.3669735923346364</v>
       </c>
       <c r="P12">
-        <v>0.05842625853873065</v>
+        <v>0.4268080945104293</v>
       </c>
       <c r="Q12">
-        <v>1.800342743800026</v>
+        <v>13.01221439209144</v>
       </c>
       <c r="R12">
-        <v>1.800342743800026</v>
+        <v>117.109929528823</v>
       </c>
       <c r="S12">
-        <v>0.002646797115218495</v>
+        <v>0.01750634497630224</v>
       </c>
       <c r="T12">
-        <v>0.002646797115218495</v>
+        <v>0.02445106079827113</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.02363054814024</v>
+        <v>3.309793666666666</v>
       </c>
       <c r="H13">
-        <v>3.02363054814024</v>
+        <v>9.929380999999999</v>
       </c>
       <c r="I13">
-        <v>0.04530149938428692</v>
+        <v>0.04770464508066981</v>
       </c>
       <c r="J13">
-        <v>0.04530149938428692</v>
+        <v>0.05728818434504563</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.50433715478759</v>
+        <v>1.309643333333333</v>
       </c>
       <c r="N13">
-        <v>4.50433715478759</v>
+        <v>3.92893</v>
       </c>
       <c r="O13">
-        <v>0.4419900558272734</v>
+        <v>0.122246817049525</v>
       </c>
       <c r="P13">
-        <v>0.4419900558272734</v>
+        <v>0.1421789799994507</v>
       </c>
       <c r="Q13">
-        <v>13.61945142033885</v>
+        <v>4.334649210258888</v>
       </c>
       <c r="R13">
-        <v>13.61945142033885</v>
+        <v>39.01184289232999</v>
       </c>
       <c r="S13">
-        <v>0.02002281224192017</v>
+        <v>0.005831741019589167</v>
       </c>
       <c r="T13">
-        <v>0.02002281224192017</v>
+        <v>0.008145175616199086</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.44559127623566</v>
+        <v>3.309793666666666</v>
       </c>
       <c r="H14">
-        <v>3.44559127623566</v>
+        <v>9.929380999999999</v>
       </c>
       <c r="I14">
-        <v>0.05162351967071555</v>
+        <v>0.04770464508066981</v>
       </c>
       <c r="J14">
-        <v>0.05162351967071555</v>
+        <v>0.05728818434504563</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>3.83909699574361</v>
+        <v>0.367377</v>
       </c>
       <c r="N14">
-        <v>3.83909699574361</v>
+        <v>1.102131</v>
       </c>
       <c r="O14">
-        <v>0.376713073902891</v>
+        <v>0.03429228994194605</v>
       </c>
       <c r="P14">
-        <v>0.376713073902891</v>
+        <v>0.039883597164056</v>
       </c>
       <c r="Q14">
-        <v>13.22795911715671</v>
+        <v>1.215942067879</v>
       </c>
       <c r="R14">
-        <v>13.22795911715671</v>
+        <v>10.943478610911</v>
       </c>
       <c r="S14">
-        <v>0.01944725478084162</v>
+        <v>0.001635901520683959</v>
       </c>
       <c r="T14">
-        <v>0.01944725478084162</v>
+        <v>0.00228485886667798</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.44559127623566</v>
+        <v>3.309793666666666</v>
       </c>
       <c r="H15">
-        <v>3.44559127623566</v>
+        <v>9.929380999999999</v>
       </c>
       <c r="I15">
-        <v>0.05162351967071555</v>
+        <v>0.04770464508066981</v>
       </c>
       <c r="J15">
-        <v>0.05162351967071555</v>
+        <v>0.05728818434504563</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.25217898990058</v>
+        <v>0.5990273333333334</v>
       </c>
       <c r="N15">
-        <v>1.25217898990058</v>
+        <v>1.797082</v>
       </c>
       <c r="O15">
-        <v>0.122870611731105</v>
+        <v>0.05591536486447825</v>
       </c>
       <c r="P15">
-        <v>0.122870611731105</v>
+        <v>0.06503228251340004</v>
       </c>
       <c r="Q15">
-        <v>4.314497003887019</v>
+        <v>1.982656874026889</v>
       </c>
       <c r="R15">
-        <v>4.314497003887019</v>
+        <v>17.843911866242</v>
       </c>
       <c r="S15">
-        <v>0.00634301344165355</v>
+        <v>0.00266742263541609</v>
       </c>
       <c r="T15">
-        <v>0.00634301344165355</v>
+        <v>0.003725581389006749</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.44559127623566</v>
+        <v>3.309793666666666</v>
       </c>
       <c r="H16">
-        <v>3.44559127623566</v>
+        <v>9.929380999999999</v>
       </c>
       <c r="I16">
-        <v>0.05162351967071555</v>
+        <v>0.04770464508066981</v>
       </c>
       <c r="J16">
-        <v>0.05162351967071555</v>
+        <v>0.05728818434504563</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.595424181339672</v>
+        <v>4.5056325</v>
       </c>
       <c r="N16">
-        <v>0.595424181339672</v>
+        <v>9.011265</v>
       </c>
       <c r="O16">
-        <v>0.05842625853873065</v>
+        <v>0.4205719358094143</v>
       </c>
       <c r="P16">
-        <v>0.05842625853873065</v>
+        <v>0.326097045812664</v>
       </c>
       <c r="Q16">
-        <v>2.051588364883734</v>
+        <v>14.9127139128275</v>
       </c>
       <c r="R16">
-        <v>2.051588364883734</v>
+        <v>89.47628347696499</v>
       </c>
       <c r="S16">
-        <v>0.003016169106960474</v>
+        <v>0.02006323492867836</v>
       </c>
       <c r="T16">
-        <v>0.003016169106960474</v>
+        <v>0.01868150767489068</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.44559127623566</v>
+        <v>3.578409999999999</v>
       </c>
       <c r="H17">
-        <v>3.44559127623566</v>
+        <v>10.73523</v>
       </c>
       <c r="I17">
-        <v>0.05162351967071555</v>
+        <v>0.05157626009208015</v>
       </c>
       <c r="J17">
-        <v>0.05162351967071555</v>
+        <v>0.06193758052253853</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.50433715478759</v>
+        <v>3.931427666666667</v>
       </c>
       <c r="N17">
-        <v>4.50433715478759</v>
+        <v>11.794283</v>
       </c>
       <c r="O17">
-        <v>0.4419900558272734</v>
+        <v>0.3669735923346364</v>
       </c>
       <c r="P17">
-        <v>0.4419900558272734</v>
+        <v>0.4268080945104293</v>
       </c>
       <c r="Q17">
-        <v>15.52010480576027</v>
+        <v>14.06826007667666</v>
       </c>
       <c r="R17">
-        <v>15.52010480576027</v>
+        <v>126.61434069009</v>
       </c>
       <c r="S17">
-        <v>0.02281708234125991</v>
+        <v>0.0189271254451762</v>
       </c>
       <c r="T17">
-        <v>0.02281708234125991</v>
+        <v>0.02643546072141095</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.701545386124</v>
+        <v>3.578409999999999</v>
       </c>
       <c r="H18">
-        <v>34.701545386124</v>
+        <v>10.73523</v>
       </c>
       <c r="I18">
-        <v>0.5199153838124234</v>
+        <v>0.05157626009208015</v>
       </c>
       <c r="J18">
-        <v>0.5199153838124234</v>
+        <v>0.06193758052253853</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.83909699574361</v>
+        <v>1.309643333333333</v>
       </c>
       <c r="N18">
-        <v>3.83909699574361</v>
+        <v>3.92893</v>
       </c>
       <c r="O18">
-        <v>0.376713073902891</v>
+        <v>0.122246817049525</v>
       </c>
       <c r="P18">
-        <v>0.376713073902891</v>
+        <v>0.1421789799994507</v>
       </c>
       <c r="Q18">
-        <v>133.2225986395292</v>
+        <v>4.686440800433332</v>
       </c>
       <c r="R18">
-        <v>133.2225986395292</v>
+        <v>42.17796720389999</v>
       </c>
       <c r="S18">
-        <v>0.1958589224053794</v>
+        <v>0.006305033631575242</v>
       </c>
       <c r="T18">
-        <v>0.1958589224053794</v>
+        <v>0.008806222022328371</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.701545386124</v>
+        <v>3.578409999999999</v>
       </c>
       <c r="H19">
-        <v>34.701545386124</v>
+        <v>10.73523</v>
       </c>
       <c r="I19">
-        <v>0.5199153838124234</v>
+        <v>0.05157626009208015</v>
       </c>
       <c r="J19">
-        <v>0.5199153838124234</v>
+        <v>0.06193758052253853</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>1.25217898990058</v>
+        <v>0.367377</v>
       </c>
       <c r="N19">
-        <v>1.25217898990058</v>
+        <v>1.102131</v>
       </c>
       <c r="O19">
-        <v>0.122870611731105</v>
+        <v>0.03429228994194605</v>
       </c>
       <c r="P19">
-        <v>0.122870611731105</v>
+        <v>0.039883597164056</v>
       </c>
       <c r="Q19">
-        <v>43.45254604958588</v>
+        <v>1.31462553057</v>
       </c>
       <c r="R19">
-        <v>43.45254604958588</v>
+        <v>11.83162977513</v>
       </c>
       <c r="S19">
-        <v>0.0638823212574447</v>
+        <v>0.001768668065198833</v>
       </c>
       <c r="T19">
-        <v>0.0638823212574447</v>
+        <v>0.002470293510877208</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>34.701545386124</v>
+        <v>3.578409999999999</v>
       </c>
       <c r="H20">
-        <v>34.701545386124</v>
+        <v>10.73523</v>
       </c>
       <c r="I20">
-        <v>0.5199153838124234</v>
+        <v>0.05157626009208015</v>
       </c>
       <c r="J20">
-        <v>0.5199153838124234</v>
+        <v>0.06193758052253853</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.595424181339672</v>
+        <v>0.5990273333333334</v>
       </c>
       <c r="N20">
-        <v>0.595424181339672</v>
+        <v>1.797082</v>
       </c>
       <c r="O20">
-        <v>0.05842625853873065</v>
+        <v>0.05591536486447825</v>
       </c>
       <c r="P20">
-        <v>0.05842625853873065</v>
+        <v>0.06503228251340004</v>
       </c>
       <c r="Q20">
-        <v>20.66213925275436</v>
+        <v>2.143565399873333</v>
       </c>
       <c r="R20">
-        <v>20.66213925275436</v>
+        <v>19.29208859886</v>
       </c>
       <c r="S20">
-        <v>0.03037671063288803</v>
+        <v>0.002883905401393891</v>
       </c>
       <c r="T20">
-        <v>0.03037671063288803</v>
+        <v>0.004027942234738189</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>34.701545386124</v>
+        <v>3.578409999999999</v>
       </c>
       <c r="H21">
-        <v>34.701545386124</v>
+        <v>10.73523</v>
       </c>
       <c r="I21">
-        <v>0.5199153838124234</v>
+        <v>0.05157626009208015</v>
       </c>
       <c r="J21">
-        <v>0.5199153838124234</v>
+        <v>0.06193758052253853</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.50433715478759</v>
+        <v>4.5056325</v>
       </c>
       <c r="N21">
-        <v>4.50433715478759</v>
+        <v>9.011265</v>
       </c>
       <c r="O21">
-        <v>0.4419900558272734</v>
+        <v>0.4205719358094143</v>
       </c>
       <c r="P21">
-        <v>0.4419900558272734</v>
+        <v>0.326097045812664</v>
       </c>
       <c r="Q21">
-        <v>156.3074602112662</v>
+        <v>16.123000394325</v>
       </c>
       <c r="R21">
-        <v>156.3074602112662</v>
+        <v>96.73800236594998</v>
       </c>
       <c r="S21">
-        <v>0.2297974295167113</v>
+        <v>0.02169152754873599</v>
       </c>
       <c r="T21">
-        <v>0.2297974295167113</v>
+        <v>0.02019766203318381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>34.8194875</v>
+      </c>
+      <c r="H22">
+        <v>69.638975</v>
+      </c>
+      <c r="I22">
+        <v>0.5018594693098147</v>
+      </c>
+      <c r="J22">
+        <v>0.4017864192541332</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.931427666666667</v>
+      </c>
+      <c r="N22">
+        <v>11.794283</v>
+      </c>
+      <c r="O22">
+        <v>0.3669735923346364</v>
+      </c>
+      <c r="P22">
+        <v>0.4268080945104293</v>
+      </c>
+      <c r="Q22">
+        <v>136.8902964966542</v>
+      </c>
+      <c r="R22">
+        <v>821.341778979925</v>
+      </c>
+      <c r="S22">
+        <v>0.1841691722997769</v>
+      </c>
+      <c r="T22">
+        <v>0.1714856960020251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>34.8194875</v>
+      </c>
+      <c r="H23">
+        <v>69.638975</v>
+      </c>
+      <c r="I23">
+        <v>0.5018594693098147</v>
+      </c>
+      <c r="J23">
+        <v>0.4017864192541332</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.309643333333333</v>
+      </c>
+      <c r="N23">
+        <v>3.92893</v>
+      </c>
+      <c r="O23">
+        <v>0.122246817049525</v>
+      </c>
+      <c r="P23">
+        <v>0.1421789799994507</v>
+      </c>
+      <c r="Q23">
+        <v>45.60110967445834</v>
+      </c>
+      <c r="R23">
+        <v>273.60665804675</v>
+      </c>
+      <c r="S23">
+        <v>0.06135072272928865</v>
+      </c>
+      <c r="T23">
+        <v>0.05712558326718431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>34.8194875</v>
+      </c>
+      <c r="H24">
+        <v>69.638975</v>
+      </c>
+      <c r="I24">
+        <v>0.5018594693098147</v>
+      </c>
+      <c r="J24">
+        <v>0.4017864192541332</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.367377</v>
+      </c>
+      <c r="N24">
+        <v>1.102131</v>
+      </c>
+      <c r="O24">
+        <v>0.03429228994194605</v>
+      </c>
+      <c r="P24">
+        <v>0.039883597164056</v>
+      </c>
+      <c r="Q24">
+        <v>12.7918788592875</v>
+      </c>
+      <c r="R24">
+        <v>76.751273155725</v>
+      </c>
+      <c r="S24">
+        <v>0.01720991043168334</v>
+      </c>
+      <c r="T24">
+        <v>0.01602468769152036</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>34.8194875</v>
+      </c>
+      <c r="H25">
+        <v>69.638975</v>
+      </c>
+      <c r="I25">
+        <v>0.5018594693098147</v>
+      </c>
+      <c r="J25">
+        <v>0.4017864192541332</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.5990273333333334</v>
+      </c>
+      <c r="N25">
+        <v>1.797082</v>
+      </c>
+      <c r="O25">
+        <v>0.05591536486447825</v>
+      </c>
+      <c r="P25">
+        <v>0.06503228251340004</v>
+      </c>
+      <c r="Q25">
+        <v>20.85782474515834</v>
+      </c>
+      <c r="R25">
+        <v>125.14694847095</v>
+      </c>
+      <c r="S25">
+        <v>0.02806165533715172</v>
+      </c>
+      <c r="T25">
+        <v>0.02612908792698218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>34.8194875</v>
+      </c>
+      <c r="H26">
+        <v>69.638975</v>
+      </c>
+      <c r="I26">
+        <v>0.5018594693098147</v>
+      </c>
+      <c r="J26">
+        <v>0.4017864192541332</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.5056325</v>
+      </c>
+      <c r="N26">
+        <v>9.011265</v>
+      </c>
+      <c r="O26">
+        <v>0.4205719358094143</v>
+      </c>
+      <c r="P26">
+        <v>0.326097045812664</v>
+      </c>
+      <c r="Q26">
+        <v>156.8838145133438</v>
+      </c>
+      <c r="R26">
+        <v>627.5352580533751</v>
+      </c>
+      <c r="S26">
+        <v>0.2110680085119142</v>
+      </c>
+      <c r="T26">
+        <v>0.1310213643664213</v>
       </c>
     </row>
   </sheetData>
